--- a/Code/Results/Cases/Case_0_78/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_78/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.096028416134326</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.103262048106139</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.086871275391876</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.103690297605553</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.030591361965273</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.100831876815831</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.105877152565791</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.089528001483324</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.106304332445915</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.10239518434809</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.02</v>
+      </c>
+      <c r="C3">
+        <v>1.101333143508288</v>
+      </c>
+      <c r="D3">
+        <v>1.108505253122676</v>
+      </c>
+      <c r="E3">
+        <v>1.091507187282192</v>
+      </c>
+      <c r="F3">
+        <v>1.108912160457058</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.031084454311972</v>
+      </c>
+      <c r="J3">
+        <v>1.105784404675992</v>
+      </c>
+      <c r="K3">
+        <v>1.110932582845951</v>
+      </c>
+      <c r="L3">
+        <v>1.093974261685219</v>
+      </c>
+      <c r="M3">
+        <v>1.111338554759716</v>
+      </c>
+      <c r="N3">
+        <v>1.107354745365876</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.02</v>
+      </c>
+      <c r="C4">
+        <v>1.104705613807866</v>
+      </c>
+      <c r="D4">
+        <v>1.111836397049688</v>
+      </c>
+      <c r="E4">
+        <v>1.094454283253923</v>
+      </c>
+      <c r="F4">
+        <v>1.112224574022479</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.0313895016285</v>
+      </c>
+      <c r="J4">
+        <v>1.108930259413349</v>
+      </c>
+      <c r="K4">
+        <v>1.114142585073859</v>
+      </c>
+      <c r="L4">
+        <v>1.096798888086047</v>
+      </c>
+      <c r="M4">
+        <v>1.114529918768086</v>
+      </c>
+      <c r="N4">
+        <v>1.110505067577795</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.02</v>
+      </c>
+      <c r="C5">
+        <v>1.106109590872814</v>
+      </c>
+      <c r="D5">
+        <v>1.113222637410629</v>
+      </c>
+      <c r="E5">
+        <v>1.095681130557742</v>
+      </c>
+      <c r="F5">
+        <v>1.113601778602191</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.031514455789745</v>
+      </c>
+      <c r="J5">
+        <v>1.110239246444243</v>
+      </c>
+      <c r="K5">
+        <v>1.115477971425158</v>
+      </c>
+      <c r="L5">
+        <v>1.097974297611095</v>
+      </c>
+      <c r="M5">
+        <v>1.115856308935717</v>
+      </c>
+      <c r="N5">
+        <v>1.111815913520415</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.02</v>
+      </c>
+      <c r="C6">
+        <v>1.106344530879469</v>
+      </c>
+      <c r="D6">
+        <v>1.113454578055301</v>
+      </c>
+      <c r="E6">
+        <v>1.095886427210117</v>
+      </c>
+      <c r="F6">
+        <v>1.113832134441023</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.031535245244279</v>
+      </c>
+      <c r="J6">
+        <v>1.110458252799157</v>
+      </c>
+      <c r="K6">
+        <v>1.115701377442472</v>
+      </c>
+      <c r="L6">
+        <v>1.098170960166558</v>
+      </c>
+      <c r="M6">
+        <v>1.116078136834769</v>
+      </c>
+      <c r="N6">
+        <v>1.112035230889474</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.02</v>
+      </c>
+      <c r="C7">
+        <v>1.104724427353274</v>
+      </c>
+      <c r="D7">
+        <v>1.111854975023003</v>
+      </c>
+      <c r="E7">
+        <v>1.094470723405568</v>
+      </c>
+      <c r="F7">
+        <v>1.112243035802339</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.031391184103558</v>
+      </c>
+      <c r="J7">
+        <v>1.108947802635893</v>
+      </c>
+      <c r="K7">
+        <v>1.114160483258897</v>
+      </c>
+      <c r="L7">
+        <v>1.096814640747334</v>
+      </c>
+      <c r="M7">
+        <v>1.114547701285915</v>
+      </c>
+      <c r="N7">
+        <v>1.110522635713727</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.02</v>
+      </c>
+      <c r="C8">
+        <v>1.097833955727218</v>
+      </c>
+      <c r="D8">
+        <v>1.105047110240636</v>
+      </c>
+      <c r="E8">
+        <v>1.088449209743796</v>
+      </c>
+      <c r="F8">
+        <v>1.105469176202556</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.030760949192211</v>
+      </c>
+      <c r="J8">
+        <v>1.10251810666784</v>
+      </c>
+      <c r="K8">
+        <v>1.10759867287048</v>
+      </c>
+      <c r="L8">
+        <v>1.091041784148439</v>
+      </c>
+      <c r="M8">
+        <v>1.10801971321423</v>
+      </c>
+      <c r="N8">
+        <v>1.104083808839903</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.02</v>
+      </c>
+      <c r="C9">
+        <v>1.085205212166536</v>
+      </c>
+      <c r="D9">
+        <v>1.092552293222002</v>
+      </c>
+      <c r="E9">
+        <v>1.077411780601045</v>
+      </c>
+      <c r="F9">
+        <v>1.09299578640745</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.029539774355986</v>
+      </c>
+      <c r="J9">
+        <v>1.090712428471701</v>
+      </c>
+      <c r="K9">
+        <v>1.095540792950201</v>
+      </c>
+      <c r="L9">
+        <v>1.080444933071235</v>
+      </c>
+      <c r="M9">
+        <v>1.095982998454796</v>
+      </c>
+      <c r="N9">
+        <v>1.092261365226595</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+      <c r="C10">
+        <v>1.076418322403212</v>
+      </c>
+      <c r="D10">
+        <v>1.083846825104701</v>
+      </c>
+      <c r="E10">
+        <v>1.069731374773347</v>
+      </c>
+      <c r="F10">
+        <v>1.084277479053163</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.028646343479832</v>
+      </c>
+      <c r="J10">
+        <v>1.08248367224561</v>
+      </c>
+      <c r="K10">
+        <v>1.087129753303519</v>
+      </c>
+      <c r="L10">
+        <v>1.07306063142271</v>
+      </c>
+      <c r="M10">
+        <v>1.087559014571812</v>
+      </c>
+      <c r="N10">
+        <v>1.084020923222812</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.02</v>
+      </c>
+      <c r="C11">
+        <v>1.072516424551981</v>
+      </c>
+      <c r="D11">
+        <v>1.079978305805241</v>
+      </c>
+      <c r="E11">
+        <v>1.066320685490517</v>
+      </c>
+      <c r="F11">
+        <v>1.080396654643219</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.028239448901367</v>
+      </c>
+      <c r="J11">
+        <v>1.078826159755479</v>
+      </c>
+      <c r="K11">
+        <v>1.083389681674453</v>
+      </c>
+      <c r="L11">
+        <v>1.06977890853196</v>
+      </c>
+      <c r="M11">
+        <v>1.083806616075726</v>
+      </c>
+      <c r="N11">
+        <v>1.080358216645422</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.02</v>
+      </c>
+      <c r="C12">
+        <v>1.07105158205397</v>
+      </c>
+      <c r="D12">
+        <v>1.078525578074831</v>
+      </c>
+      <c r="E12">
+        <v>1.065040234609688</v>
+      </c>
+      <c r="F12">
+        <v>1.078938313299758</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.02808518690466</v>
+      </c>
+      <c r="J12">
+        <v>1.077452543562792</v>
+      </c>
+      <c r="K12">
+        <v>1.081984828684471</v>
+      </c>
+      <c r="L12">
+        <v>1.068546491313039</v>
+      </c>
+      <c r="M12">
+        <v>1.082396145622159</v>
+      </c>
+      <c r="N12">
+        <v>1.078982649760186</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.02</v>
+      </c>
+      <c r="C13">
+        <v>1.071366512754149</v>
+      </c>
+      <c r="D13">
+        <v>1.078837922971277</v>
+      </c>
+      <c r="E13">
+        <v>1.065315523130604</v>
+      </c>
+      <c r="F13">
+        <v>1.079251910032724</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.028118419880467</v>
+      </c>
+      <c r="J13">
+        <v>1.077747884780453</v>
+      </c>
+      <c r="K13">
+        <v>1.082286896554943</v>
+      </c>
+      <c r="L13">
+        <v>1.068811470291718</v>
+      </c>
+      <c r="M13">
+        <v>1.08269946595229</v>
+      </c>
+      <c r="N13">
+        <v>1.079278410396252</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.02</v>
+      </c>
+      <c r="C14">
+        <v>1.072395662015446</v>
+      </c>
+      <c r="D14">
+        <v>1.079858550471844</v>
+      </c>
+      <c r="E14">
+        <v>1.066215124637336</v>
+      </c>
+      <c r="F14">
+        <v>1.080276456742313</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.028226761957606</v>
+      </c>
+      <c r="J14">
+        <v>1.078712928556257</v>
+      </c>
+      <c r="K14">
+        <v>1.083273880227171</v>
+      </c>
+      <c r="L14">
+        <v>1.069677315406259</v>
+      </c>
+      <c r="M14">
+        <v>1.083690371652274</v>
+      </c>
+      <c r="N14">
+        <v>1.080244824644909</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.02</v>
+      </c>
+      <c r="C15">
+        <v>1.073027671935483</v>
+      </c>
+      <c r="D15">
+        <v>1.080485272238919</v>
+      </c>
+      <c r="E15">
+        <v>1.066767575982529</v>
+      </c>
+      <c r="F15">
+        <v>1.080905454136952</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.028293097682144</v>
+      </c>
+      <c r="J15">
+        <v>1.079305502051016</v>
+      </c>
+      <c r="K15">
+        <v>1.083879895204279</v>
+      </c>
+      <c r="L15">
+        <v>1.070208986050465</v>
+      </c>
+      <c r="M15">
+        <v>1.084298664575244</v>
+      </c>
+      <c r="N15">
+        <v>1.080838239662</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.02</v>
+      </c>
+      <c r="C16">
+        <v>1.076675155986385</v>
+      </c>
+      <c r="D16">
+        <v>1.084101403788482</v>
+      </c>
+      <c r="E16">
+        <v>1.069955873124834</v>
+      </c>
+      <c r="F16">
+        <v>1.084532729804699</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.028672916173572</v>
+      </c>
+      <c r="J16">
+        <v>1.082724347517931</v>
+      </c>
+      <c r="K16">
+        <v>1.087375829167478</v>
+      </c>
+      <c r="L16">
+        <v>1.073276587946794</v>
+      </c>
+      <c r="M16">
+        <v>1.087805764502776</v>
+      </c>
+      <c r="N16">
+        <v>1.084261940281625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.02</v>
+      </c>
+      <c r="C17">
+        <v>1.078936502088619</v>
+      </c>
+      <c r="D17">
+        <v>1.086342579682058</v>
+      </c>
+      <c r="E17">
+        <v>1.071932501710813</v>
+      </c>
+      <c r="F17">
+        <v>1.08677907008736</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.028905725491296</v>
+      </c>
+      <c r="J17">
+        <v>1.08484302995756</v>
+      </c>
+      <c r="K17">
+        <v>1.08954187822714</v>
+      </c>
+      <c r="L17">
+        <v>1.075177720326377</v>
+      </c>
+      <c r="M17">
+        <v>1.089976998457489</v>
+      </c>
+      <c r="N17">
+        <v>1.086383631493334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.02</v>
+      </c>
+      <c r="C18">
+        <v>1.080246201893058</v>
+      </c>
+      <c r="D18">
+        <v>1.087640333497872</v>
+      </c>
+      <c r="E18">
+        <v>1.073077289043165</v>
+      </c>
+      <c r="F18">
+        <v>1.088079187474914</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.029039594451297</v>
+      </c>
+      <c r="J18">
+        <v>1.086069774816613</v>
+      </c>
+      <c r="K18">
+        <v>1.090795902888453</v>
+      </c>
+      <c r="L18">
+        <v>1.076278543287666</v>
+      </c>
+      <c r="M18">
+        <v>1.091233400890874</v>
+      </c>
+      <c r="N18">
+        <v>1.087612118470797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.02</v>
+      </c>
+      <c r="C19">
+        <v>1.080691223988071</v>
+      </c>
+      <c r="D19">
+        <v>1.088081251650363</v>
+      </c>
+      <c r="E19">
+        <v>1.073466273302888</v>
+      </c>
+      <c r="F19">
+        <v>1.08852080236247</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.029084917133172</v>
+      </c>
+      <c r="J19">
+        <v>1.086486553968991</v>
+      </c>
+      <c r="K19">
+        <v>1.091221925401826</v>
+      </c>
+      <c r="L19">
+        <v>1.076652548430115</v>
+      </c>
+      <c r="M19">
+        <v>1.091660125341714</v>
+      </c>
+      <c r="N19">
+        <v>1.088029489497376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.02</v>
+      </c>
+      <c r="C20">
+        <v>1.07869484990573</v>
+      </c>
+      <c r="D20">
+        <v>1.086103110307845</v>
+      </c>
+      <c r="E20">
+        <v>1.071721276376608</v>
+      </c>
+      <c r="F20">
+        <v>1.086539113929144</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.028880947135301</v>
+      </c>
+      <c r="J20">
+        <v>1.084616657207874</v>
+      </c>
+      <c r="K20">
+        <v>1.089310459695657</v>
+      </c>
+      <c r="L20">
+        <v>1.07497458752836</v>
+      </c>
+      <c r="M20">
+        <v>1.089745090705607</v>
+      </c>
+      <c r="N20">
+        <v>1.086156937268379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.02</v>
+      </c>
+      <c r="C21">
+        <v>1.072093038875914</v>
+      </c>
+      <c r="D21">
+        <v>1.079558444617439</v>
+      </c>
+      <c r="E21">
+        <v>1.065950595677403</v>
+      </c>
+      <c r="F21">
+        <v>1.07997522581882</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.028194945089341</v>
+      </c>
+      <c r="J21">
+        <v>1.078429170076685</v>
+      </c>
+      <c r="K21">
+        <v>1.082983676962146</v>
+      </c>
+      <c r="L21">
+        <v>1.069422723137383</v>
+      </c>
+      <c r="M21">
+        <v>1.083399042365667</v>
+      </c>
+      <c r="N21">
+        <v>1.079960663195749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.02</v>
+      </c>
+      <c r="C22">
+        <v>1.067852013295989</v>
+      </c>
+      <c r="D22">
+        <v>1.075351707385921</v>
+      </c>
+      <c r="E22">
+        <v>1.062243394579528</v>
+      </c>
+      <c r="F22">
+        <v>1.075750351988394</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.027745495411801</v>
+      </c>
+      <c r="J22">
+        <v>1.074451277986811</v>
+      </c>
+      <c r="K22">
+        <v>1.078914888452367</v>
+      </c>
+      <c r="L22">
+        <v>1.065853860804784</v>
+      </c>
+      <c r="M22">
+        <v>1.07931211495587</v>
+      </c>
+      <c r="N22">
+        <v>1.075977122042837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.02</v>
+      </c>
+      <c r="C23">
+        <v>1.070109135051396</v>
+      </c>
+      <c r="D23">
+        <v>1.077590808343957</v>
+      </c>
+      <c r="E23">
+        <v>1.064216416761138</v>
+      </c>
+      <c r="F23">
+        <v>1.077999651572928</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.027985516271998</v>
+      </c>
+      <c r="J23">
+        <v>1.076568642842546</v>
+      </c>
+      <c r="K23">
+        <v>1.081080762540507</v>
+      </c>
+      <c r="L23">
+        <v>1.067753468954953</v>
+      </c>
+      <c r="M23">
+        <v>1.081488186296197</v>
+      </c>
+      <c r="N23">
+        <v>1.078097493799532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.02</v>
+      </c>
+      <c r="C24">
+        <v>1.078804070814427</v>
+      </c>
+      <c r="D24">
+        <v>1.086211345458608</v>
+      </c>
+      <c r="E24">
+        <v>1.071816745130775</v>
+      </c>
+      <c r="F24">
+        <v>1.08664757103916</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.028892149347584</v>
+      </c>
+      <c r="J24">
+        <v>1.084718973203128</v>
+      </c>
+      <c r="K24">
+        <v>1.08941505673713</v>
+      </c>
+      <c r="L24">
+        <v>1.075066399394642</v>
+      </c>
+      <c r="M24">
+        <v>1.089849910800366</v>
+      </c>
+      <c r="N24">
+        <v>1.086259398564082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.02</v>
+      </c>
+      <c r="C25">
+        <v>1.088531726184032</v>
+      </c>
+      <c r="D25">
+        <v>1.095845566275078</v>
+      </c>
+      <c r="E25">
+        <v>1.080319266778673</v>
+      </c>
+      <c r="F25">
+        <v>1.096288202911483</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.029869071954036</v>
+      </c>
+      <c r="J25">
+        <v>1.093824649982809</v>
+      </c>
+      <c r="K25">
+        <v>1.098720622273093</v>
+      </c>
+      <c r="L25">
+        <v>1.083238157669498</v>
+      </c>
+      <c r="M25">
+        <v>1.099162028965573</v>
+      </c>
+      <c r="N25">
+        <v>1.095378006449226</v>
       </c>
     </row>
   </sheetData>
